--- a/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C4408-8C65-634C-BACA-1F9EE77CBEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="34000" yWindow="4840" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,19 +575,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="K288" sqref="K288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -594,11 +595,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,7 +607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -614,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -622,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -630,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -638,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -646,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -654,12 +655,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -694,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -723,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -749,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -769,8 +770,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,7 +779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -786,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -794,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -802,7 +803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -810,7 +811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -818,7 +819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -826,12 +827,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -866,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -895,7 +896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -921,7 +922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -941,8 +942,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -950,7 +951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -974,7 +975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -982,7 +983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -990,12 +991,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -1105,8 +1106,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -1162,12 +1163,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>41</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>31</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>40</v>
       </c>
@@ -1277,8 +1278,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -1326,12 +1327,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>31</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>42</v>
       </c>
@@ -1441,8 +1442,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>1</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>3</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -1498,12 +1499,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>43</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>31</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>42</v>
       </c>
@@ -1610,11 +1611,11 @@
         <v>23</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>6</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>8</v>
       </c>
@@ -1662,12 +1663,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>27</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>31</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>44</v>
       </c>
@@ -1777,8 +1778,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>6</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>8</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>17</v>
       </c>
@@ -1834,12 +1835,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>11</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>45</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>31</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>44</v>
       </c>
@@ -1949,8 +1950,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>1</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>4</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>6</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>8</v>
       </c>
@@ -1998,12 +1999,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>11</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>28</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>31</v>
       </c>
@@ -2093,8 +2094,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>46</v>
       </c>
       <c r="B114" s="3">
@@ -2109,12 +2110,12 @@
       <c r="F114" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K114" s="3" t="s">
+      <c r="K114" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>4</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>6</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>8</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>17</v>
       </c>
@@ -2170,12 +2171,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>11</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>47</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>31</v>
       </c>
@@ -2265,8 +2266,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>46</v>
       </c>
       <c r="B127" s="3">
@@ -2281,12 +2282,12 @@
       <c r="F127" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K127" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>3</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>4</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>8</v>
       </c>
@@ -2334,12 +2335,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>11</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>29</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>31</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>48</v>
       </c>
@@ -2449,8 +2450,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>1</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>4</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>6</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>8</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>17</v>
       </c>
@@ -2506,12 +2507,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>11</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>49</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>31</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>48</v>
       </c>
@@ -2621,8 +2622,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>1</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>3</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>4</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>6</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>8</v>
       </c>
@@ -2670,12 +2671,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>11</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>30</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>31</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>50</v>
       </c>
@@ -2785,8 +2786,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>0</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>1</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>3</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>4</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>6</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>8</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>17</v>
       </c>
@@ -2842,12 +2843,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>11</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>51</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="176" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>31</v>
       </c>
@@ -2937,7 +2938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>50</v>
       </c>
@@ -2957,8 +2958,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>0</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>1</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>4</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>6</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>8</v>
       </c>
@@ -3006,12 +3007,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>11</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>52</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>56</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>36</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>58</v>
       </c>
@@ -3138,8 +3139,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>0</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>1</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>3</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>4</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="196" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>8</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>17</v>
       </c>
@@ -3195,12 +3196,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="199" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>11</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>53</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>56</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="203" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>36</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>58</v>
       </c>
@@ -3327,8 +3328,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>0</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="207" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>1</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>4</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>6</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>8</v>
       </c>
@@ -3376,12 +3377,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>11</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>54</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>56</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>36</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>59</v>
       </c>
@@ -3508,8 +3509,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>0</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>1</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>3</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>4</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>6</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>8</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>17</v>
       </c>
@@ -3565,12 +3566,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="226" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>11</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>55</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>56</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="230" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>36</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>59</v>
       </c>
@@ -3697,9 +3698,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="232" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>1</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>3</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>4</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>6</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>8</v>
       </c>
@@ -3747,12 +3748,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>11</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>60</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>64</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>74</v>
       </c>
@@ -3862,8 +3863,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="245" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="247" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>1</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>3</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>4</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="250" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>6</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>8</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>17</v>
       </c>
@@ -3919,12 +3920,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>11</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>61</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="256" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>64</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="257" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>74</v>
       </c>
@@ -4034,8 +4035,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="258" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>0</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="260" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>1</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>3</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>4</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>6</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>8</v>
       </c>
@@ -4083,12 +4084,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>11</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>62</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>64</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>75</v>
       </c>
@@ -4198,8 +4199,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="270" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>0</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="272" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>1</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>3</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>4</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="275" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>6</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>8</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>17</v>
       </c>
@@ -4255,12 +4256,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="278" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>11</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>63</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="281" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>64</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="282" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>75</v>
       </c>
@@ -4370,9 +4371,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>0</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="286" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>1</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>3</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>4</v>
       </c>
@@ -4404,7 +4405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>6</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>8</v>
       </c>
@@ -4420,12 +4421,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>11</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>66</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>70</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>42</v>
       </c>
@@ -4535,8 +4536,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="296" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="297" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>0</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="298" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>1</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>3</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>4</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>6</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>8</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>17</v>
       </c>
@@ -4592,12 +4593,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>11</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>67</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="307" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>70</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="308" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>42</v>
       </c>
@@ -4704,11 +4705,11 @@
         <v>23</v>
       </c>
       <c r="K308" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="310" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>0</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="311" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>1</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>3</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>4</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>6</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>8</v>
       </c>
@@ -4756,12 +4757,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>11</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>68</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>70</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>48</v>
       </c>
@@ -4871,8 +4872,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="321" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="322" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>0</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="323" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>1</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>3</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>4</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="326" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>6</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>8</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>17</v>
       </c>
@@ -4928,12 +4929,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="329" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>11</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>69</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="332" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>70</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="333" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>48</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="334" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C4408-8C65-634C-BACA-1F9EE77CBEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176B7154-966B-204D-9352-DB41B9F951A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34000" yWindow="4840" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$330</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="73">
   <si>
     <t>Activity</t>
   </si>
@@ -127,12 +130,6 @@
     <t>kilogram</t>
   </si>
   <si>
-    <t>biosphere</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, to soil or biomass stock</t>
-  </si>
-  <si>
     <t>heat production, at co-generation power plant/hard coal, oxy, pipeline 200km, storage 1000m</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>CHP CCS</t>
-  </si>
-  <si>
-    <t>soil</t>
   </si>
   <si>
     <t>CO2 capture/natural gas, post, 200km pipeline, storage 1000m</t>
@@ -576,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K334"/>
+  <dimension ref="A1:K330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="K288" sqref="K288"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -589,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -652,7 +646,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -776,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -800,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -824,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -869,7 +863,7 @@
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -893,7 +887,7 @@
         <v>20</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -919,7 +913,7 @@
         <v>20</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1088,7 +1082,7 @@
     </row>
     <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
         <v>0.94420499999999996</v>
@@ -1103,7 +1097,7 @@
         <v>23</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1136,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1160,7 +1154,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1205,7 +1199,7 @@
     </row>
     <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -1229,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1255,12 +1249,12 @@
         <v>20</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B52" s="3">
         <v>4.6663999999999997E-2</v>
@@ -1275,7 +1269,7 @@
         <v>23</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1424,7 +1418,7 @@
     </row>
     <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B64" s="3">
         <v>0.94420499999999996</v>
@@ -1439,7 +1433,7 @@
         <v>23</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1448,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1472,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1496,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1541,7 +1535,7 @@
     </row>
     <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -1565,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1591,12 +1585,12 @@
         <v>20</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B77" s="3">
         <v>4.6663999999999997E-2</v>
@@ -1611,7 +1605,7 @@
         <v>23</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1760,7 +1754,7 @@
     </row>
     <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B89" s="3">
         <v>0.94420499999999996</v>
@@ -1775,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1784,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1808,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1832,7 +1826,7 @@
         <v>17</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1877,7 +1871,7 @@
     </row>
     <row r="100" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -1901,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1927,12 +1921,12 @@
         <v>20</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B102" s="3">
         <v>4.6663999999999997E-2</v>
@@ -1947,7 +1941,7 @@
         <v>23</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2096,7 +2090,7 @@
     </row>
     <row r="114" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B114" s="3">
         <v>0.94420499999999996</v>
@@ -2111,7 +2105,7 @@
         <v>23</v>
       </c>
       <c r="K114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2120,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2144,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2168,7 +2162,7 @@
         <v>17</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2213,7 +2207,7 @@
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -2237,7 +2231,7 @@
         <v>20</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2263,12 +2257,12 @@
         <v>20</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B127" s="3">
         <v>4.6663999999999997E-2</v>
@@ -2283,7 +2277,7 @@
         <v>23</v>
       </c>
       <c r="K127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2432,7 +2426,7 @@
     </row>
     <row r="139" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B139" s="3">
         <v>0.94420499999999996</v>
@@ -2447,7 +2441,7 @@
         <v>23</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2456,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2480,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2504,7 +2498,7 @@
         <v>17</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2549,7 +2543,7 @@
     </row>
     <row r="150" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B150" s="3">
         <v>1</v>
@@ -2573,7 +2567,7 @@
         <v>20</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2599,12 +2593,12 @@
         <v>20</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B152" s="3">
         <v>4.6663999999999997E-2</v>
@@ -2619,7 +2613,7 @@
         <v>23</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2768,7 +2762,7 @@
     </row>
     <row r="164" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B164" s="3">
         <v>0.94420499999999996</v>
@@ -2783,7 +2777,7 @@
         <v>23</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2792,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2816,7 +2810,7 @@
         <v>4</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2840,7 +2834,7 @@
         <v>17</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2885,7 +2879,7 @@
     </row>
     <row r="175" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
@@ -2909,7 +2903,7 @@
         <v>20</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2935,12 +2929,12 @@
         <v>20</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B177" s="3">
         <v>4.6663999999999997E-2</v>
@@ -2955,7 +2949,7 @@
         <v>23</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2964,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3049,7 +3043,7 @@
     </row>
     <row r="187" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B187" s="3">
         <v>1</v>
@@ -3078,13 +3072,13 @@
     </row>
     <row r="188" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B188" s="3">
         <v>1</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>9</v>
@@ -3104,165 +3098,174 @@
     </row>
     <row r="189" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B189" s="3">
         <v>1.4504599999999999</v>
       </c>
+      <c r="C189" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D189" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E189" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F189" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B190" s="3">
-        <v>1.4504599999999999</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>53</v>
+      <c r="B191" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B193" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B194" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J199" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
-        <v>10</v>
+      <c r="K199" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I200" s="3">
+        <v>100</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="201" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B201" s="3">
         <v>1</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I201" s="3">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="J201" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3270,1782 +3273,1706 @@
         <v>56</v>
       </c>
       <c r="B202" s="3">
-        <v>1</v>
+        <v>6.8361999999999992E-2</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J202" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K202" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B203" s="3">
-        <v>6.8361999999999992E-2</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B204" s="3">
-        <v>6.8361999999999992E-2</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K204" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>54</v>
+      <c r="B204" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B208" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
-        <v>10</v>
+      <c r="E212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I212" s="3">
+        <v>100</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H213" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I213" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B214" s="3">
-        <v>1</v>
+        <v>1.4504599999999999</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I214" s="3">
-        <v>100</v>
-      </c>
-      <c r="J214" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B215" s="3">
-        <v>1</v>
-      </c>
-      <c r="C215" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D215" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K215" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B216" s="3">
-        <v>1.4504599999999999</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>35</v>
+    </row>
+    <row r="215" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="217" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B217" s="3">
-        <v>1.4504599999999999</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K217" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="220" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B221" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="B225" s="3">
+        <v>1</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I225" s="3">
+        <v>100</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B226" s="3">
+        <v>1</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="B227" s="3">
+        <v>6.8361999999999992E-2</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H227" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I227" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J227" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B228" s="3">
-        <v>1</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I228" s="3">
-        <v>100</v>
-      </c>
-      <c r="J228" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K228" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B229" s="3">
-        <v>1</v>
-      </c>
-      <c r="C229" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D229" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J229" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K229" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B230" s="3">
-        <v>6.8361999999999992E-2</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>35</v>
+    </row>
+    <row r="228" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="231" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B231" s="3">
-        <v>6.8361999999999992E-2</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K231" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B236" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="B238" s="3">
+        <v>1</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I238" s="3">
+        <v>100</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B239" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B239" s="3">
+        <v>1</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D239" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H241" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I241" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J241" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K241" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B242" s="3">
-        <v>1</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I242" s="3">
-        <v>100</v>
-      </c>
-      <c r="J242" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K242" s="3" t="s">
+      <c r="E239" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K239" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B240" s="3">
+        <v>0.41847499999999999</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="243" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B243" s="3">
-        <v>1</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J243" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K243" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B244" s="3">
-        <v>0.41847499999999999</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K244" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A246" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B248" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B251" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B251" s="3">
+        <v>1</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I251" s="3">
+        <v>100</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="252" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G254" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H254" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I254" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K254" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B255" s="3">
-        <v>1</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D255" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B252" s="3">
+        <v>1</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E255" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I255" s="3">
-        <v>100</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K255" s="3" t="s">
-        <v>65</v>
+      <c r="E252" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B253" s="3">
+        <v>2.1374999999999998E-2</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B256" s="3">
-        <v>1</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K256" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B257" s="3">
-        <v>2.1374999999999998E-2</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K257" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B261" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="B263" s="3">
+        <v>1</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I263" s="3">
+        <v>100</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B264" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B264" s="3">
+        <v>1</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G266" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H266" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I266" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J266" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K266" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B267" s="3">
-        <v>1</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I267" s="3">
-        <v>100</v>
-      </c>
-      <c r="J267" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K267" s="3" t="s">
+      <c r="E264" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K264" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B265" s="3">
+        <v>0.41847499999999999</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="268" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B268" s="3">
-        <v>1</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J268" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K268" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B269" s="3">
-        <v>0.41847499999999999</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K269" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B271" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="273" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B273" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B276" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B276" s="3">
+        <v>1</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I276" s="3">
+        <v>100</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="277" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G279" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H279" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I279" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J279" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K279" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B277" s="3">
+        <v>1</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K277" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B280" s="3">
-        <v>1</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I280" s="3">
-        <v>100</v>
-      </c>
-      <c r="J280" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K280" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="3" t="s">
+    </row>
+    <row r="278" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B278" s="3">
+        <v>2.1374999999999998E-2</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B281" s="3">
-        <v>1</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J281" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K281" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="282" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B282" s="3">
-        <v>2.1374999999999998E-2</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K282" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B287" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="B289" s="3">
+        <v>1</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I289" s="3">
+        <v>100</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B290" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B290" s="3">
+        <v>1</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G292" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H292" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I292" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J292" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K292" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B293" s="3">
-        <v>1</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I293" s="3">
-        <v>100</v>
-      </c>
-      <c r="J293" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K293" s="3" t="s">
+      <c r="E290" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K290" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B291" s="3">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="294" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B294" s="3">
-        <v>1</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J294" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K294" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B295" s="3">
-        <v>0.55479999999999996</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K295" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B299" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B302" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B302" s="3">
+        <v>1</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I302" s="3">
+        <v>100</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K302" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="303" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E305" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F305" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G305" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H305" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I305" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J305" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K305" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B306" s="3">
-        <v>1</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D306" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B303" s="3">
+        <v>1</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D303" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E306" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F306" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I306" s="3">
-        <v>100</v>
-      </c>
-      <c r="J306" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K306" s="3" t="s">
-        <v>38</v>
+      <c r="E303" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B304" s="3">
+        <v>2.8376499999999999E-2</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="307" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B307" s="3">
-        <v>1</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J307" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K307" s="3" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B308" s="3">
-        <v>2.8376499999999999E-2</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K308" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B312" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="B314" s="3">
+        <v>1</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I314" s="3">
+        <v>100</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B315" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B315" s="3">
+        <v>1</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D315" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A316" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E317" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F317" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G317" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H317" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I317" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J317" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K317" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B318" s="3">
-        <v>1</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E318" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F318" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I318" s="3">
-        <v>100</v>
-      </c>
-      <c r="J318" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K318" s="3" t="s">
+      <c r="E315" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K315" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B316" s="3">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="319" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B319" s="3">
-        <v>1</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E319" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F319" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J319" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K319" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B320" s="3">
-        <v>0.55479999999999996</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F320" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K320" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="322" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A322" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="324" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B324" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B327" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B327" s="3">
+        <v>1</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D327" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I327" s="3">
+        <v>100</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="328" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A329" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E330" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F330" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G330" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H330" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I330" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J330" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K330" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B331" s="3">
-        <v>1</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D331" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B328" s="3">
+        <v>1</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D328" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E331" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F331" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I331" s="3">
-        <v>100</v>
-      </c>
-      <c r="J331" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K331" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B332" s="3">
-        <v>1</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E332" s="3" t="s">
+      <c r="E328" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F332" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J332" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K332" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B333" s="3">
+      <c r="F328" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B329" s="3">
         <v>2.8376499999999999E-2</v>
       </c>
-      <c r="C333" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D333" s="3" t="s">
+      <c r="C329" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D329" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F333" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K333" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F329" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <autoFilter ref="A1:K330" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DA34C0-D776-E44E-A13F-621EFFD370FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$330</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="73">
   <si>
     <t>Activity</t>
   </si>
@@ -126,12 +130,6 @@
     <t>kilogram</t>
   </si>
   <si>
-    <t>biosphere</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, to soil or biomass stock</t>
-  </si>
-  <si>
     <t>heat production, at co-generation power plant/hard coal, oxy, pipeline 200km, storage 1000m</t>
   </si>
   <si>
@@ -238,9 +236,6 @@
   </si>
   <si>
     <t>CHP CCS</t>
-  </si>
-  <si>
-    <t>soil</t>
   </si>
   <si>
     <t>CO2 capture/natural gas, post, 200km pipeline, storage 1000m</t>
@@ -252,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,31 +569,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K334"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,7 +601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -614,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -622,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -630,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -638,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -646,20 +641,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -694,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -723,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -749,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -769,16 +764,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -786,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -794,15 +789,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -810,7 +805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -818,20 +813,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -866,9 +861,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -892,10 +887,10 @@
         <v>20</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -918,10 +913,10 @@
         <v>20</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -941,8 +936,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -950,7 +945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -974,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -982,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -990,12 +985,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
@@ -1059,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -1085,9 +1080,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
         <v>0.94420499999999996</v>
@@ -1102,19 +1097,19 @@
         <v>23</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1130,15 +1125,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1154,20 +1149,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
@@ -1202,9 +1197,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -1228,10 +1223,10 @@
         <v>20</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>31</v>
       </c>
@@ -1254,12 +1249,12 @@
         <v>20</v>
       </c>
       <c r="K51" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="B52" s="3">
         <v>4.6663999999999997E-2</v>
@@ -1274,11 +1269,11 @@
         <v>23</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
@@ -1318,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -1326,12 +1321,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
@@ -1395,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>31</v>
       </c>
@@ -1421,9 +1416,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B64" s="3">
         <v>0.94420499999999996</v>
@@ -1438,19 +1433,19 @@
         <v>23</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>1</v>
       </c>
@@ -1458,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>3</v>
       </c>
@@ -1466,15 +1461,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -1490,20 +1485,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
@@ -1538,9 +1533,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -1564,10 +1559,10 @@
         <v>20</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>31</v>
       </c>
@@ -1590,12 +1585,12 @@
         <v>20</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B77" s="3">
         <v>4.6663999999999997E-2</v>
@@ -1610,11 +1605,11 @@
         <v>23</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>6</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>8</v>
       </c>
@@ -1662,12 +1657,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>27</v>
       </c>
@@ -1731,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>31</v>
       </c>
@@ -1757,9 +1752,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B89" s="3">
         <v>0.94420499999999996</v>
@@ -1774,19 +1769,19 @@
         <v>23</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
@@ -1802,15 +1797,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>6</v>
       </c>
@@ -1818,7 +1813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>8</v>
       </c>
@@ -1826,20 +1821,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>11</v>
       </c>
@@ -1874,9 +1869,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -1900,10 +1895,10 @@
         <v>20</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>31</v>
       </c>
@@ -1926,12 +1921,12 @@
         <v>20</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B102" s="3">
         <v>4.6663999999999997E-2</v>
@@ -1946,11 +1941,11 @@
         <v>23</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +1953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>1</v>
       </c>
@@ -1966,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>4</v>
       </c>
@@ -1982,7 +1977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>6</v>
       </c>
@@ -1990,7 +1985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>8</v>
       </c>
@@ -1998,12 +1993,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>11</v>
       </c>
@@ -2038,7 +2033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>28</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>31</v>
       </c>
@@ -2093,9 +2088,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B114" s="3">
         <v>0.94420499999999996</v>
@@ -2110,19 +2105,19 @@
         <v>23</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,15 +2133,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>6</v>
       </c>
@@ -2154,7 +2149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>8</v>
       </c>
@@ -2162,20 +2157,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>11</v>
       </c>
@@ -2210,9 +2205,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -2236,10 +2231,10 @@
         <v>20</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>31</v>
       </c>
@@ -2262,12 +2257,12 @@
         <v>20</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B127" s="3">
         <v>4.6663999999999997E-2</v>
@@ -2282,11 +2277,11 @@
         <v>23</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>3</v>
       </c>
@@ -2310,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>4</v>
       </c>
@@ -2318,7 +2313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>8</v>
       </c>
@@ -2334,12 +2329,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>11</v>
       </c>
@@ -2374,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>29</v>
       </c>
@@ -2403,7 +2398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>31</v>
       </c>
@@ -2429,9 +2424,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B139" s="3">
         <v>0.94420499999999996</v>
@@ -2446,19 +2441,19 @@
         <v>23</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>1</v>
       </c>
@@ -2466,7 +2461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,15 +2469,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>6</v>
       </c>
@@ -2490,7 +2485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>8</v>
       </c>
@@ -2498,20 +2493,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>11</v>
       </c>
@@ -2546,9 +2541,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B150" s="3">
         <v>1</v>
@@ -2572,10 +2567,10 @@
         <v>20</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>31</v>
       </c>
@@ -2598,12 +2593,12 @@
         <v>20</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B152" s="3">
         <v>4.6663999999999997E-2</v>
@@ -2618,11 +2613,11 @@
         <v>23</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>1</v>
       </c>
@@ -2638,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>3</v>
       </c>
@@ -2646,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>4</v>
       </c>
@@ -2654,7 +2649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>6</v>
       </c>
@@ -2662,7 +2657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>8</v>
       </c>
@@ -2670,12 +2665,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>11</v>
       </c>
@@ -2710,7 +2705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>30</v>
       </c>
@@ -2739,7 +2734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>31</v>
       </c>
@@ -2765,9 +2760,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B164" s="3">
         <v>0.94420499999999996</v>
@@ -2782,19 +2777,19 @@
         <v>23</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>1</v>
       </c>
@@ -2802,7 +2797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>3</v>
       </c>
@@ -2810,15 +2805,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>6</v>
       </c>
@@ -2826,7 +2821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>8</v>
       </c>
@@ -2834,20 +2829,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>11</v>
       </c>
@@ -2882,9 +2877,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
@@ -2908,10 +2903,10 @@
         <v>20</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>31</v>
       </c>
@@ -2934,12 +2929,12 @@
         <v>20</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B177" s="3">
         <v>4.6663999999999997E-2</v>
@@ -2954,19 +2949,19 @@
         <v>23</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>1</v>
       </c>
@@ -2974,7 +2969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>4</v>
       </c>
@@ -2990,7 +2985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>6</v>
       </c>
@@ -2998,7 +2993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>8</v>
       </c>
@@ -3006,12 +3001,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>11</v>
       </c>
@@ -3046,9 +3041,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B187" s="3">
         <v>1</v>
@@ -3075,15 +3070,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B188" s="3">
         <v>1</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>9</v>
@@ -3101,1950 +3096,1883 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B189" s="3">
         <v>1.4504599999999999</v>
       </c>
+      <c r="C189" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D189" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E189" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F189" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B190" s="3">
-        <v>1.4504599999999999</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B194" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E200" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I200" s="3">
+        <v>100</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B201" s="3">
         <v>1</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I201" s="3">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="J201" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B202" s="3">
-        <v>1</v>
+        <v>6.8361999999999992E-2</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I212" s="3">
+        <v>100</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="B214" s="3">
+        <v>1.4504599999999999</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E202" s="3" t="s">
+    </row>
+    <row r="222" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B225" s="3">
+        <v>1</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I225" s="3">
+        <v>100</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B226" s="3">
+        <v>1</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E226" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F202" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J202" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K202" s="3" t="s">
+      <c r="F226" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B227" s="3">
+        <v>6.8361999999999992E-2</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B238" s="3">
+        <v>1</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I238" s="3">
+        <v>100</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B239" s="3">
+        <v>1</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B240" s="3">
+        <v>0.41847499999999999</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B251" s="3">
+        <v>1</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I251" s="3">
+        <v>100</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B252" s="3">
+        <v>1</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B253" s="3">
+        <v>2.1374999999999998E-2</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B263" s="3">
+        <v>1</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I263" s="3">
+        <v>100</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B264" s="3">
+        <v>1</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B265" s="3">
+        <v>0.41847499999999999</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B269" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B276" s="3">
+        <v>1</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I276" s="3">
+        <v>100</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B277" s="3">
+        <v>1</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B278" s="3">
+        <v>2.1374999999999998E-2</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B289" s="3">
+        <v>1</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I289" s="3">
+        <v>100</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B290" s="3">
+        <v>1</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B291" s="3">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B302" s="3">
+        <v>1</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I302" s="3">
+        <v>100</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K302" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B303" s="3">
+        <v>1</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B304" s="3">
+        <v>2.8376499999999999E-2</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K304" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="203" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+    <row r="305" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B308" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B314" s="3">
+        <v>1</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I314" s="3">
+        <v>100</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B315" s="3">
+        <v>1</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B316" s="3">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B320" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B203" s="3">
-        <v>6.8361999999999992E-2</v>
-      </c>
-      <c r="D203" s="3" t="s">
+    </row>
+    <row r="322" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B327" s="3">
+        <v>1</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I327" s="3">
+        <v>100</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B328" s="3">
+        <v>1</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B329" s="3">
+        <v>2.8376499999999999E-2</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D329" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E203" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B204" s="3">
-        <v>6.8361999999999992E-2</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K204" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B208" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H213" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I213" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K213" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B214" s="3">
-        <v>1</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I214" s="3">
-        <v>100</v>
-      </c>
-      <c r="J214" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K214" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B215" s="3">
-        <v>1</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K215" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B216" s="3">
-        <v>1.4504599999999999</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B217" s="3">
-        <v>1.4504599999999999</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K217" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B221" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H227" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I227" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J227" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K227" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B228" s="3">
-        <v>1</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I228" s="3">
-        <v>100</v>
-      </c>
-      <c r="J228" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K228" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B229" s="3">
-        <v>1</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J229" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K229" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B230" s="3">
-        <v>6.8361999999999992E-2</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B231" s="3">
-        <v>6.8361999999999992E-2</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K231" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A234" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B236" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A240" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H241" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I241" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J241" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K241" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B242" s="3">
-        <v>1</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I242" s="3">
-        <v>100</v>
-      </c>
-      <c r="J242" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K242" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B243" s="3">
-        <v>1</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J243" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K243" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B244" s="3">
-        <v>0.41847499999999999</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K244" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A246" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B248" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A253" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G254" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H254" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I254" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K254" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B255" s="3">
-        <v>1</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I255" s="3">
-        <v>100</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K255" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B256" s="3">
-        <v>1</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K256" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B257" s="3">
-        <v>2.1374999999999998E-2</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K257" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A259" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B261" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A265" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G266" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H266" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I266" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J266" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K266" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B267" s="3">
-        <v>1</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I267" s="3">
-        <v>100</v>
-      </c>
-      <c r="J267" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K267" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B268" s="3">
-        <v>1</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J268" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K268" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B269" s="3">
-        <v>0.41847499999999999</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K269" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A271" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B273" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A278" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G279" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H279" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I279" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J279" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K279" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B280" s="3">
-        <v>1</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I280" s="3">
-        <v>100</v>
-      </c>
-      <c r="J280" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K280" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B281" s="3">
-        <v>1</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J281" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K281" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B282" s="3">
-        <v>2.1374999999999998E-2</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K282" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B287" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A291" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G292" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H292" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I292" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J292" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K292" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B293" s="3">
-        <v>1</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I293" s="3">
-        <v>100</v>
-      </c>
-      <c r="J293" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K293" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B294" s="3">
-        <v>1</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J294" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K294" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B295" s="3">
-        <v>0.55479999999999996</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K295" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="297" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A297" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B299" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A304" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E305" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F305" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G305" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H305" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I305" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J305" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K305" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B306" s="3">
-        <v>1</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E306" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F306" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I306" s="3">
-        <v>100</v>
-      </c>
-      <c r="J306" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K306" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B307" s="3">
-        <v>1</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J307" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K307" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B308" s="3">
-        <v>2.8376499999999999E-2</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K308" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="310" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B312" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A316" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E317" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F317" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G317" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H317" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I317" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J317" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K317" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B318" s="3">
-        <v>1</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E318" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F318" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I318" s="3">
-        <v>100</v>
-      </c>
-      <c r="J318" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K318" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B319" s="3">
-        <v>1</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E319" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F319" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J319" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K319" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B320" s="3">
-        <v>0.55479999999999996</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F320" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K320" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="322" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A322" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B324" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E330" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F330" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G330" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H330" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I330" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J330" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K330" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B331" s="3">
-        <v>1</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E331" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F331" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I331" s="3">
-        <v>100</v>
-      </c>
-      <c r="J331" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K331" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B332" s="3">
-        <v>1</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E332" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F332" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J332" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K332" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B333" s="3">
-        <v>2.8376499999999999E-2</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F333" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K333" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F329" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <autoFilter ref="A1:K330" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2FD78-044E-C242-8612-9EECCE930C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D995969C-759E-5848-8246-74D0B20CB1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1734,7 +1734,7 @@
         <v>23</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2490,7 +2490,7 @@
         <v>23</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5053,7 +5053,7 @@
         <v>23</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="323" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D995969C-759E-5848-8246-74D0B20CB1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2FD78-044E-C242-8612-9EECCE930C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="K137" sqref="K137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1734,7 +1734,7 @@
         <v>23</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2490,7 +2490,7 @@
         <v>23</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5053,7 +5053,7 @@
         <v>23</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="323" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2FD78-044E-C242-8612-9EECCE930C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A1C276-4BB5-7948-89CD-FF8715AB88EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:K350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="K351" sqref="K351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1734,7 +1734,7 @@
         <v>23</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5053,7 +5053,7 @@
         <v>23</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="323" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A1C276-4BB5-7948-89CD-FF8715AB88EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED84E56-349C-D142-AB63-F234C4D96446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$350</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K351" sqref="K351"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2490,7 +2490,7 @@
         <v>23</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
